--- a/biology/Botanique/Pterocarpus/Pterocarpus.xlsx
+++ b/biology/Botanique/Pterocarpus/Pterocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus est un genre d'arbres tropicaux de la famille des Fabacées. Le bois de plusieurs espèces est connu sous le nom de padauk ou padouk. Par ailleurs le bois issu de  broussins du Pterocarpus indicus est commercialisé sous le nom d'amboyne ou amboine ( loupe d'amboine), d'après l'île où il a été découvert, Amboine.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pterocarpus a été décrit par le botaniste Nicolaus von Jacquin. Son nom, latinisé mais issu du grec ancien πτέρυξ (aile) et καρπός (fruit), signifie « fruit ailé », par référence à la forme de ses fruits.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (14 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (14 juin 2017) :
 Pterocarpus acapulcensis Rose
 Pterocarpus amazonum (Benth.) Amshoff
 Pterocarpus angolensis DC.
@@ -564,7 +580,7 @@
 Pterocarpus santalinus L. f.
 Pterocarpus soyauxii Taub.
 Pterocarpus violaceus Vogel
-Selon The Plant List            (14 juin 2017)[3] :
+Selon The Plant List            (14 juin 2017) :
 Pterocarpus acapulcensis Rose
 Pterocarpus acuminatus (Graham in Wallich) Kuntze
 Pterocarpus albopubescens Hauman
@@ -632,7 +648,7 @@
 Pterocarpus zehntneri Harms
 Pterocarpus zenkeri Harms
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (14 juin 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 Pterocarpus abyssinicus Hochst. ex A. Rich.
 Pterocarpus acapulcensis Rose
 Pterocarpus acerifolius Willd.
